--- a/devices/iOSDevices.xlsx
+++ b/devices/iOSDevices.xlsx
@@ -5,14 +5,15 @@
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaom/Desktop/OSX/xiaoMWork/workspace/AppUiXM/devices/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaom/Desktop/OSX/xiaoMWork/workspace/AppiumUiXM/devices/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3920" yWindow="2500" windowWidth="20060" windowHeight="10740"/>
+    <workbookView xWindow="4900" yWindow="2500" windowWidth="20060" windowHeight="10740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="iphone 5S" sheetId="5" r:id="rId1"/>
+    <sheet name="iphone 6SP" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
   <si>
     <t>wap浏览器名称</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -99,6 +100,18 @@
   </si>
   <si>
     <t>iphone 5S</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>6f4522bbda674db9e9cdf83d4fef5040aa3e1d6f</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.3.5</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>iphone 6SP</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -349,7 +362,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="16">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -435,23 +448,23 @@
     <dxf>
       <border outline="0">
         <left style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </left>
         <right style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </right>
         <top style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </top>
         <bottom style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
         <bottom style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
@@ -475,6 +488,130 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -499,8 +636,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="8"/>
-      <tableStyleElement type="headerRow" dxfId="7"/>
+      <tableStyleElement type="wholeTable" dxfId="15"/>
+      <tableStyleElement type="headerRow" dxfId="14"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -512,7 +649,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表1_64" displayName="表1_64" ref="A1:D6" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表1_64" displayName="表1_64" ref="A1:D6" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11">
+  <tableColumns count="4">
+    <tableColumn id="1" name="序号" dataDxfId="10"/>
+    <tableColumn id="2" name="name" dataDxfId="9"/>
+    <tableColumn id="3" name="value" dataDxfId="8"/>
+    <tableColumn id="4" name="备注" dataDxfId="7"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1_642" displayName="表1_642" ref="A1:D6" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
   <tableColumns count="4">
     <tableColumn id="1" name="序号" dataDxfId="3"/>
     <tableColumn id="2" name="name" dataDxfId="2"/>
@@ -812,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -914,4 +1063,112 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.1640625" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/devices/iOSDevices.xlsx
+++ b/devices/iOSDevices.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4900" yWindow="2500" windowWidth="20060" windowHeight="10740" activeTab="1"/>
+    <workbookView xWindow="4900" yWindow="2500" windowWidth="20060" windowHeight="10740"/>
   </bookViews>
   <sheets>
     <sheet name="iphone 5S" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
   <si>
     <t>wap浏览器名称</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -95,16 +95,8 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>5f2b975fe35243fe838422fc44e97a525133ea10</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>iphone 5S</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>6f4522bbda674db9e9cdf83d4fef5040aa3e1d6f</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>9.3.5</t>
@@ -961,8 +953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1007,9 +999,7 @@
       <c r="B3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>17</v>
-      </c>
+      <c r="C3" s="16"/>
       <c r="D3" s="14" t="s">
         <v>14</v>
       </c>
@@ -1022,7 +1012,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>15</v>
@@ -1069,7 +1059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -1115,9 +1105,7 @@
       <c r="B3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>19</v>
-      </c>
+      <c r="C3" s="16"/>
       <c r="D3" s="14" t="s">
         <v>14</v>
       </c>
@@ -1130,7 +1118,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>15</v>
@@ -1144,7 +1132,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>3</v>

--- a/devices/iOSDevices.xlsx
+++ b/devices/iOSDevices.xlsx
@@ -5,15 +5,14 @@
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaom/Desktop/OSX/xiaoMWork/workspace/AppiumUiXM/devices/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Daily/OSX/xiaoMWork/IDEA-Work/AppiumUiXM/devices/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4900" yWindow="2500" windowWidth="20060" windowHeight="10740"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="20000"/>
   </bookViews>
   <sheets>
-    <sheet name="iphone 5S" sheetId="5" r:id="rId1"/>
-    <sheet name="iphone 6SP" sheetId="6" r:id="rId2"/>
+    <sheet name="iphone 6SP" sheetId="6" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>wap浏览器名称</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -91,19 +90,11 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>10.3.3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>iphone 5S</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>9.3.5</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>iphone 6SP</t>
+    <t>iphone6SP</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -354,7 +345,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="9">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -480,130 +471,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="3" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -628,8 +495,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="15"/>
-      <tableStyleElement type="headerRow" dxfId="14"/>
+      <tableStyleElement type="wholeTable" dxfId="8"/>
+      <tableStyleElement type="headerRow" dxfId="7"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -641,18 +508,6 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表1_64" displayName="表1_64" ref="A1:D6" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11">
-  <tableColumns count="4">
-    <tableColumn id="1" name="序号" dataDxfId="10"/>
-    <tableColumn id="2" name="name" dataDxfId="9"/>
-    <tableColumn id="3" name="value" dataDxfId="8"/>
-    <tableColumn id="4" name="备注" dataDxfId="7"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1_642" displayName="表1_642" ref="A1:D6" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
   <tableColumns count="4">
     <tableColumn id="1" name="序号" dataDxfId="3"/>
@@ -954,7 +809,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1053,110 +908,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="16.1640625" customWidth="1"/>
-    <col min="3" max="3" width="21.5" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
 </file>